--- a/h1_Peer_Reviews/peer_review_issue.xlsx
+++ b/h1_Peer_Reviews/peer_review_issue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahweitz/Desktop/ECON2250_Labs_Weitz_Sarah/final_project_reseach/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahweitz/Desktop/ECON2250_Labs_Weitz_Sarah/final_project_reseach/h1_Peer_Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{354EB35D-239D-3B4A-9C58-F97C543EA568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A125C85-89CB-E344-8F81-0481D36D549C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{D66B348C-C68D-BB42-8C69-2652486EB8F3}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="21460" xr2:uid="{D66B348C-C68D-BB42-8C69-2652486EB8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,23 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Group No:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Group Member:</t>
   </si>
   <si>
-    <t>Name 1</t>
-  </si>
-  <si>
-    <t>Name 2</t>
-  </si>
-  <si>
-    <t>Name 3</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -65,25 +53,52 @@
     <t>Follow Up</t>
   </si>
   <si>
-    <t>What outcome variable do you use? Do you create it from other variable?</t>
-  </si>
-  <si>
-    <t>I use Y as the outcome variable which is processed from variable X in the data. The detailed data cleaning procedure is given in data_cleaning.qmd files</t>
-  </si>
-  <si>
-    <t>Afi Ramadhani (Example)</t>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Julia Reviewer</t>
+  </si>
+  <si>
+    <t>Cristina Reviewer</t>
+  </si>
+  <si>
+    <t>Group No: 5</t>
+  </si>
+  <si>
+    <t>Victoria Jones</t>
+  </si>
+  <si>
+    <t>I would have liked to see more insights and maybe one or two more hypothesis tests.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF273540"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -107,11 +122,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,36 +466,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B46F35-FF47-7A44-8471-02A91C895BD8}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="C9" sqref="A6:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="62.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2"/>
     </row>
@@ -484,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3"/>
     </row>
@@ -493,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4"/>
     </row>
@@ -502,47 +522,50 @@
       <c r="D5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/h1_Peer_Reviews/peer_review_issue.xlsx
+++ b/h1_Peer_Reviews/peer_review_issue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahweitz/Desktop/ECON2250_Labs_Weitz_Sarah/final_project_reseach/h1_Peer_Reviews/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32544b9d2381f33d/Documents/ECON2250_Final_Project/h1_Peer_Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A125C85-89CB-E344-8F81-0481D36D549C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7A125C85-89CB-E344-8F81-0481D36D549C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CFD6339-4EA0-454E-841E-A4DD293E03EF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="21460" xr2:uid="{D66B348C-C68D-BB42-8C69-2652486EB8F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D66B348C-C68D-BB42-8C69-2652486EB8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Group Member:</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Cristina</t>
   </si>
   <si>
-    <t>Julia Reviewer</t>
-  </si>
-  <si>
-    <t>Cristina Reviewer</t>
-  </si>
-  <si>
     <t>Group No: 5</t>
   </si>
   <si>
@@ -75,13 +69,25 @@
   </si>
   <si>
     <t>I would have liked to see more insights and maybe one or two more hypothesis tests.</t>
+  </si>
+  <si>
+    <t>Edmund Eliason</t>
+  </si>
+  <si>
+    <t>Great presentation, easy to understand. Next steps was good and laid out a plan for extrapolation of project</t>
+  </si>
+  <si>
+    <t>Claire Lanaghan</t>
+  </si>
+  <si>
+    <t>This is a very well-organized presentation! I liked what you said about exploring the age distribution as opposed to just the mean, so using that as a next step is a great idea. I also wonder what industries CA has that might attract younger people as opposed to Vermont and if that's a factor rather than people just being born there.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +106,12 @@
       <color rgb="FF273540"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF273540"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -132,6 +144,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,26 +482,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B46F35-FF47-7A44-8471-02A91C895BD8}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="C9" sqref="A6:D9"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="70.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" customWidth="1"/>
+    <col min="3" max="3" width="70.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -499,7 +513,7 @@
       </c>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -508,7 +522,7 @@
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -517,11 +531,11 @@
       </c>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5"/>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -535,36 +549,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
   </sheetData>
